--- a/Src/street_list.xlsx
+++ b/Src/street_list.xlsx
@@ -4328,8 +4328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1207" workbookViewId="0">
-      <selection activeCell="D1223" sqref="D1223"/>
+    <sheetView tabSelected="1" topLeftCell="A1211" workbookViewId="0">
+      <selection activeCell="B1236" sqref="B1236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7739,10 +7739,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>1290</v>
@@ -7750,10 +7750,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>1290</v>
@@ -7761,10 +7761,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>1290</v>
@@ -12029,24 +12029,24 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>716</v>
+        <v>1257</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>1257</v>
+        <v>716</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
